--- a/InsuranceNow_v1.0/testData/loginData.xlsx
+++ b/InsuranceNow_v1.0/testData/loginData.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C1C0D61-444A-439E-AEA8-26952336395A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F250E9-1F23-4CA7-A892-C6BFF510A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20244" windowHeight="7140" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
+    <workbookView xWindow="-30828" yWindow="-1320" windowWidth="30936" windowHeight="16776" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,14 +51,14 @@
     <t>speter</t>
   </si>
   <si>
-    <t>Nov@2024!</t>
+    <t>November@2024!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,9 +170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +210,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,14 +472,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -486,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
